--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Re7ed83a301db45ae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R515f2e4fafea453e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R515f2e4fafea453e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R4c28ccbce6674797"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R4c28ccbce6674797"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R57766544da9e4000"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R57766544da9e4000"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R2793e7ba05c34a67"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R2793e7ba05c34a67"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R031f0a2250c04776"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R031f0a2250c04776"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R2c03eb334b834a9d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R2c03eb334b834a9d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R2e653f923e454395"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R2e653f923e454395"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8d6b79d3f52a4877"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8d6b79d3f52a4877"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R08a2c02965ad4683"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R08a2c02965ad4683"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R7bea807a49354fcd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R7bea807a49354fcd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Re637f0b6ce3e4471"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Re637f0b6ce3e4471"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R819a35865af346b1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/061_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R819a35865af346b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R18f24d58f67f4b41"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
